--- a/simulated_dolphin_data.xlsx
+++ b/simulated_dolphin_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alison/Desktop/ENT535/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53EEB540-4057-094E-861E-721733B6B9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A910B625-9100-8140-A4D3-255F89EA6498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="700" windowWidth="28040" windowHeight="16520" xr2:uid="{81CD266D-A69D-7440-9A6D-E110E8D85B21}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{81CD266D-A69D-7440-9A6D-E110E8D85B21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
